--- a/results/acl/mbert/results_pos_postprocessed.xlsx
+++ b/results/acl/mbert/results_pos_postprocessed.xlsx
@@ -642,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="8">
-        <v>0.9037724523248835</v>
+        <v>0.8981853442305029</v>
       </c>
       <c r="D2" s="9">
         <v>0.8397284942512814</v>
@@ -710,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="9">
-        <v>0.3868726844055237</v>
+        <v>0.8317615358706635</v>
       </c>
       <c r="D3" s="8">
         <v>0.8981138430447962</v>
@@ -778,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="9">
-        <v>0.7911421553576912</v>
+        <v>0.829290758366595</v>
       </c>
       <c r="D4" s="9">
         <v>0.8850936444580902</v>
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="9">
-        <v>0.7692718414202763</v>
+        <v>0.8738570379763733</v>
       </c>
       <c r="D5" s="9">
         <v>0.8544683975171862</v>
@@ -914,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="9">
-        <v>0.7570663218178459</v>
+        <v>0.8044522445963421</v>
       </c>
       <c r="D6" s="9">
         <v>0.7745242933678183</v>
@@ -982,7 +982,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9">
-        <v>0.5101564324071912</v>
+        <v>0.4849404622927854</v>
       </c>
       <c r="D7" s="9">
         <v>0.562456222274107</v>
@@ -1050,7 +1050,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9">
-        <v>0.4412379757423672</v>
+        <v>0.5406942701798411</v>
       </c>
       <c r="D8" s="9">
         <v>0.5872020075282308</v>
@@ -1118,7 +1118,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="9">
-        <v>0.3135471731923663</v>
+        <v>0.3516709972224711</v>
       </c>
       <c r="D9" s="9">
         <v>0.4116566615894633</v>
@@ -1186,7 +1186,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="9">
-        <v>0.2801408248311539</v>
+        <v>0.3482540594913062</v>
       </c>
       <c r="D10" s="9">
         <v>0.4640034487713752</v>
@@ -1254,7 +1254,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="9">
-        <v>0.6544080604534005</v>
+        <v>0.7453400503778338</v>
       </c>
       <c r="D11" s="9">
         <v>0.8025188916876574</v>
@@ -1322,7 +1322,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="9">
-        <v>0.7355747961827719</v>
+        <v>0.7825317575680971</v>
       </c>
       <c r="D12" s="9">
         <v>0.8485748593819125</v>
@@ -1390,7 +1390,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="9">
-        <v>0.5753261672273734</v>
+        <v>0.6565192418150488</v>
       </c>
       <c r="D13" s="9">
         <v>0.6682940838598507</v>
@@ -1458,25 +1458,25 @@
         <v>14</v>
       </c>
       <c r="C14" s="9">
-        <v>0.4917390255668114</v>
+        <v>0.5504124656278644</v>
       </c>
       <c r="D14" s="9">
-        <v>0.6231307284129282</v>
+        <v>0.565853486568427</v>
       </c>
       <c r="E14" s="9">
-        <v>0.5524602026049205</v>
+        <v>0.5163223577522386</v>
       </c>
       <c r="F14" s="9">
-        <v>0.6380849011095031</v>
+        <v>0.556581823309596</v>
       </c>
       <c r="G14" s="9">
-        <v>0.5460082006753497</v>
+        <v>0.5499189170133258</v>
       </c>
       <c r="H14" s="9">
-        <v>0.5235166425470333</v>
+        <v>0.467531551857858</v>
       </c>
       <c r="I14" s="9">
-        <v>0.5393150024119633</v>
+        <v>0.484206444334767</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>23</v>
@@ -1485,34 +1485,34 @@
         <v>23</v>
       </c>
       <c r="L14" s="9">
-        <v>0.6088398456343463</v>
-      </c>
-      <c r="M14" s="8">
-        <v>0.6566570188133141</v>
+        <v>0.5435380384967919</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0.5782979623492914</v>
       </c>
       <c r="N14" s="9">
-        <v>0.6463458755426917</v>
-      </c>
-      <c r="O14" s="9">
-        <v>0.6449589966232513</v>
+        <v>0.571494042163153</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0.9524430656419657</v>
       </c>
       <c r="P14" s="9">
-        <v>0.5821273516642547</v>
+        <v>0.4936896284284002</v>
       </c>
       <c r="Q14" s="9">
-        <v>0.649662325132658</v>
+        <v>0.5566170767820631</v>
       </c>
       <c r="R14" s="9">
-        <v>0.5065123010130246</v>
+        <v>0.4608686455615878</v>
       </c>
       <c r="S14" s="9">
-        <v>0.6315123010130246</v>
+        <v>0.5665585560177677</v>
       </c>
       <c r="T14" s="9">
-        <v>0.5438977327544622</v>
+        <v>0.483289854050624</v>
       </c>
       <c r="U14" s="9">
-        <v>0.5078388808490111</v>
+        <v>0.4782486074878375</v>
       </c>
       <c r="V14" s="9">
         <v>0.4873371924746744</v>
@@ -1526,7 +1526,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="9">
-        <v>0.433257198487288</v>
+        <v>0.4023289774216497</v>
       </c>
       <c r="D15" s="9">
         <v>0.5032762946044108</v>
@@ -1594,25 +1594,25 @@
         <v>16</v>
       </c>
       <c r="C16" s="9">
-        <v>0.589197656204676</v>
+        <v>0.605129705480788</v>
       </c>
       <c r="D16" s="9">
-        <v>0.7072576434414342</v>
+        <v>0.655061439438268</v>
       </c>
       <c r="E16" s="9">
-        <v>0.6485467308696409</v>
+        <v>0.6150770431051297</v>
       </c>
       <c r="F16" s="9">
-        <v>0.7196727968904102</v>
+        <v>0.6090306221962161</v>
       </c>
       <c r="G16" s="9">
-        <v>0.6243545860648605</v>
+        <v>0.6302906182952994</v>
       </c>
       <c r="H16" s="9">
-        <v>0.547078958055346</v>
+        <v>0.6277550224302711</v>
       </c>
       <c r="I16" s="9">
-        <v>0.5173754133549922</v>
+        <v>0.6203432806709577</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>23</v>
@@ -1621,34 +1621,34 @@
         <v>23</v>
       </c>
       <c r="L16" s="9">
-        <v>0.666183210535476</v>
+        <v>0.6715428125609518</v>
       </c>
       <c r="M16" s="9">
-        <v>0.700643963566746</v>
+        <v>0.6914374878096352</v>
       </c>
       <c r="N16" s="9">
-        <v>0.6725068167314497</v>
+        <v>0.6979715233079774</v>
       </c>
       <c r="O16" s="9">
-        <v>0.5679642629227823</v>
+        <v>0.5769455822118198</v>
       </c>
       <c r="P16" s="9">
-        <v>0.630330103846377</v>
+        <v>0.6303881412131851</v>
       </c>
       <c r="Q16" s="8">
-        <v>0.7464175900678772</v>
+        <v>0.941876340940121</v>
       </c>
       <c r="R16" s="9">
-        <v>0.5831061089516737</v>
+        <v>0.5473961380924517</v>
       </c>
       <c r="S16" s="9">
-        <v>0.6449498172535824</v>
+        <v>0.6609128145114102</v>
       </c>
       <c r="T16" s="9">
-        <v>0.5970296455299646</v>
+        <v>0.6403354788375268</v>
       </c>
       <c r="U16" s="9">
-        <v>0.5382607182224285</v>
+        <v>0.5786034718158767</v>
       </c>
       <c r="V16" s="9">
         <v>0.3700759993038232</v>
@@ -1662,25 +1662,25 @@
         <v>17</v>
       </c>
       <c r="C17" s="9">
-        <v>0.5561177774565081</v>
+        <v>0.6261357378854625</v>
       </c>
       <c r="D17" s="9">
-        <v>0.7682039419786998</v>
+        <v>0.6510187224669604</v>
       </c>
       <c r="E17" s="9">
-        <v>0.7688304178111898</v>
+        <v>0.6603111233480177</v>
       </c>
       <c r="F17" s="9">
-        <v>0.7799624114500506</v>
+        <v>0.6542194383259912</v>
       </c>
       <c r="G17" s="9">
-        <v>0.7143752108332129</v>
+        <v>0.662961178414097</v>
       </c>
       <c r="H17" s="9">
-        <v>0.5774661462098212</v>
+        <v>0.4665129405286343</v>
       </c>
       <c r="I17" s="9">
-        <v>0.5954411835574189</v>
+        <v>0.5424008810572687</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>23</v>
@@ -1688,35 +1688,35 @@
       <c r="K17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="8">
-        <v>0.784588694520746</v>
+      <c r="L17" s="9">
+        <v>0.6717373348017621</v>
       </c>
       <c r="M17" s="9">
-        <v>0.6640161919907475</v>
+        <v>0.5567524779735683</v>
       </c>
       <c r="N17" s="9">
-        <v>0.6110548889210159</v>
+        <v>0.5299765969162996</v>
       </c>
       <c r="O17" s="9">
-        <v>0.5354922654329912</v>
+        <v>0.4578400330396476</v>
       </c>
       <c r="P17" s="9">
-        <v>0.579201002361332</v>
+        <v>0.4740501101321586</v>
       </c>
       <c r="Q17" s="9">
-        <v>0.5922124234976628</v>
-      </c>
-      <c r="R17" s="9">
-        <v>0.7628066117295552</v>
+        <v>0.5228180066079295</v>
+      </c>
+      <c r="R17" s="8">
+        <v>0.9678207599118943</v>
       </c>
       <c r="S17" s="9">
-        <v>0.7718182256276805</v>
+        <v>0.7954983480176211</v>
       </c>
       <c r="T17" s="9">
-        <v>0.7287841549804829</v>
+        <v>0.6192868942731278</v>
       </c>
       <c r="U17" s="9">
-        <v>0.6237289769167751</v>
+        <v>0.5195140418502202</v>
       </c>
       <c r="V17" s="9">
         <v>0.2688063225868633</v>
@@ -1730,7 +1730,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="9">
-        <v>0.5139063222567219</v>
+        <v>0.559291801545881</v>
       </c>
       <c r="D18" s="9">
         <v>0.6430600515293652</v>
@@ -1798,7 +1798,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="9">
-        <v>0.06714736367733214</v>
+        <v>0.2118071203244705</v>
       </c>
       <c r="D19" s="9">
         <v>0.3433979269941415</v>
@@ -1866,7 +1866,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="9">
-        <v>0.12516933080466</v>
+        <v>0.1608416869863632</v>
       </c>
       <c r="D20" s="9">
         <v>0.3312562087961708</v>
@@ -1932,25 +1932,25 @@
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="9">
-        <v>0.4995155059717755</v>
+        <v>0.5758477728349909</v>
       </c>
       <c r="D22" s="8">
-        <v>0.6454502111357847</v>
+        <v>0.632858063060262</v>
       </c>
       <c r="E22" s="9">
-        <v>0.5743253213779853</v>
+        <v>0.5644293865401874</v>
       </c>
       <c r="F22" s="9">
-        <v>0.6058143890371772</v>
+        <v>0.5881539320583904</v>
       </c>
       <c r="G22" s="9">
-        <v>0.5945923603740327</v>
+        <v>0.5922830668267715</v>
       </c>
       <c r="H22" s="9">
-        <v>0.5331316967028898</v>
+        <v>0.5283393504809212</v>
       </c>
       <c r="I22" s="9">
-        <v>0.5146754636328956</v>
+        <v>0.5143876306739299</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>23</v>
@@ -1959,34 +1959,34 @@
         <v>23</v>
       </c>
       <c r="L22" s="9">
-        <v>0.6284896611217978</v>
+        <v>0.6188900186311833</v>
       </c>
       <c r="M22" s="9">
-        <v>0.587235609161882</v>
+        <v>0.5764117621486423</v>
       </c>
       <c r="N22" s="9">
-        <v>0.5545962973237166</v>
+        <v>0.5473482185010652</v>
       </c>
       <c r="O22" s="9">
-        <v>0.5087406580587599</v>
+        <v>0.5049256073307429</v>
       </c>
       <c r="P22" s="9">
-        <v>0.5336081483802428</v>
+        <v>0.5228564495970084</v>
       </c>
       <c r="Q22" s="9">
-        <v>0.5527492679248479</v>
+        <v>0.543724842078163</v>
       </c>
       <c r="R22" s="9">
-        <v>0.530883262604138</v>
+        <v>0.5263636166979903</v>
       </c>
       <c r="S22" s="9">
-        <v>0.6280250657666375</v>
+        <v>0.6266189199139993</v>
       </c>
       <c r="T22" s="9">
-        <v>0.585301732801537</v>
+        <v>0.5782573269068908</v>
       </c>
       <c r="U22" s="9">
-        <v>0.5171761167155098</v>
+        <v>0.5119837581136053</v>
       </c>
       <c r="V22" s="9">
         <v>0.2525957144421507</v>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="9">
-        <v>0.6760882507503343</v>
+        <v>0.8348403942024935</v>
       </c>
       <c r="D27" s="8">
         <v>0.838453707398594</v>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="9">
-        <v>0.4398980933252958</v>
+        <v>0.4941799679128475</v>
       </c>
       <c r="D28" s="9">
         <v>0.5655674463701668</v>
@@ -2196,25 +2196,25 @@
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="9">
-        <v>0.5650189687337841</v>
+        <v>0.5993844295826897</v>
       </c>
       <c r="D29" s="8">
-        <v>0.6701067219401072</v>
+        <v>0.6482120327705737</v>
       </c>
       <c r="E29" s="9">
-        <v>0.5921901663942392</v>
+        <v>0.5782686598708006</v>
       </c>
       <c r="F29" s="9">
-        <v>0.6546457409286872</v>
+        <v>0.6162166904298669</v>
       </c>
       <c r="G29" s="9">
-        <v>0.5938716481811478</v>
+        <v>0.5958409978948308</v>
       </c>
       <c r="H29" s="9">
-        <v>0.5616371493193364</v>
+        <v>0.5665753440564864</v>
       </c>
       <c r="I29" s="9">
-        <v>0.5242607638569448</v>
+        <v>0.5338326257046987</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>23</v>
@@ -2223,34 +2223,34 @@
         <v>23</v>
       </c>
       <c r="L29" s="9">
-        <v>0.6407441593206837</v>
+        <v>0.6287557182982682</v>
       </c>
       <c r="M29" s="9">
-        <v>0.6364293840628532</v>
+        <v>0.6145380010075698</v>
       </c>
       <c r="N29" s="9">
-        <v>0.6478876503364278</v>
+        <v>0.635540868635675</v>
       </c>
       <c r="O29" s="9">
-        <v>0.5809630957322109</v>
+        <v>0.5832084255544703</v>
       </c>
       <c r="P29" s="9">
-        <v>0.6459476549840225</v>
+        <v>0.623852733516761</v>
       </c>
       <c r="Q29" s="9">
-        <v>0.6586015594672763</v>
+        <v>0.6353402473796275</v>
       </c>
       <c r="R29" s="9">
-        <v>0.5380524645646478</v>
+        <v>0.5217817393025161</v>
       </c>
       <c r="S29" s="9">
-        <v>0.6520426254534103</v>
+        <v>0.6422444759059244</v>
       </c>
       <c r="T29" s="9">
-        <v>0.5789998461772309</v>
+        <v>0.5755394370979757</v>
       </c>
       <c r="U29" s="9">
-        <v>0.5278829883392683</v>
+        <v>0.5300334843857233</v>
       </c>
       <c r="V29" s="9">
         <v>0.3230802477871418</v>
@@ -2262,25 +2262,25 @@
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="9">
-        <v>0.3155851985488056</v>
+        <v>0.3895190866855442</v>
       </c>
       <c r="D30" s="9">
-        <v>0.5214795323245943</v>
+        <v>0.4921832274466594</v>
       </c>
       <c r="E30" s="9">
-        <v>0.4712304736340647</v>
+        <v>0.4441006500182716</v>
       </c>
       <c r="F30" s="9">
-        <v>0.4105875741491899</v>
+        <v>0.3791518308681749</v>
       </c>
       <c r="G30" s="9">
-        <v>0.4678692028998352</v>
+        <v>0.4550156947950562</v>
       </c>
       <c r="H30" s="9">
-        <v>0.3676546935975932</v>
+        <v>0.3399163921772965</v>
       </c>
       <c r="I30" s="9">
-        <v>0.4277126967462591</v>
+        <v>0.4144526211212216</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>23</v>
@@ -2289,34 +2289,34 @@
         <v>23</v>
       </c>
       <c r="L30" s="9">
-        <v>0.5241714716032884</v>
+        <v>0.4959586316735424</v>
       </c>
       <c r="M30" s="9">
-        <v>0.4461414638437106</v>
+        <v>0.4193255353394157</v>
       </c>
       <c r="N30" s="9">
-        <v>0.4170817868976853</v>
+        <v>0.3968122138965062</v>
       </c>
       <c r="O30" s="9">
-        <v>0.3869113880286247</v>
+        <v>0.3674983299302888</v>
       </c>
       <c r="P30" s="9">
-        <v>0.4074336801988637</v>
+        <v>0.3811459571415703</v>
       </c>
       <c r="Q30" s="9">
-        <v>0.4066677066301349</v>
+        <v>0.3893191024077015</v>
       </c>
       <c r="R30" s="9">
         <v>0.3731497932370603</v>
       </c>
       <c r="S30" s="9">
-        <v>0.4869355144783942</v>
+        <v>0.4948288886083743</v>
       </c>
       <c r="T30" s="8">
-        <v>0.5645553099215389</v>
+        <v>0.5280562230190872</v>
       </c>
       <c r="U30" s="9">
-        <v>0.5042786322738276</v>
+        <v>0.4695403205849761</v>
       </c>
       <c r="V30" s="9">
         <v>0.2156524519137334</v>
@@ -2328,25 +2328,25 @@
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="9">
-        <v>0.499147627839555</v>
+        <v>0.5794809695958938</v>
       </c>
       <c r="D32" s="8">
-        <v>0.6489018520083656</v>
+        <v>0.6361041034964985</v>
       </c>
       <c r="E32" s="9">
-        <v>0.5779467023292005</v>
+        <v>0.5676838697943927</v>
       </c>
       <c r="F32" s="9">
-        <v>0.6070875961300821</v>
+        <v>0.5896213976851233</v>
       </c>
       <c r="G32" s="9">
-        <v>0.5985314058088052</v>
+        <v>0.595810366211031</v>
       </c>
       <c r="H32" s="9">
-        <v>0.527753734303873</v>
+        <v>0.5220537076330862</v>
       </c>
       <c r="I32" s="9">
-        <v>0.5110518718572772</v>
+        <v>0.5101298184129563</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>23</v>
@@ -2355,34 +2355,34 @@
         <v>23</v>
       </c>
       <c r="L32" s="9">
-        <v>0.6201564608670647</v>
+        <v>0.6101061406290244</v>
       </c>
       <c r="M32" s="9">
-        <v>0.582640590641022</v>
+        <v>0.5704637627511275</v>
       </c>
       <c r="N32" s="9">
-        <v>0.5523851394530507</v>
+        <v>0.5442310507775676</v>
       </c>
       <c r="O32" s="9">
-        <v>0.5062603164409257</v>
+        <v>0.5019683843719066</v>
       </c>
       <c r="P32" s="9">
-        <v>0.5329164003013629</v>
+        <v>0.5208207391702242</v>
       </c>
       <c r="Q32" s="9">
-        <v>0.5507378044372337</v>
+        <v>0.5405853253597132</v>
       </c>
       <c r="R32" s="9">
-        <v>0.5151099156674303</v>
+        <v>0.5110422343518973</v>
       </c>
       <c r="S32" s="9">
-        <v>0.6139161106378133</v>
+        <v>0.6134399167834369</v>
       </c>
       <c r="T32" s="9">
-        <v>0.5832270905135373</v>
+        <v>0.5732372165181104</v>
       </c>
       <c r="U32" s="9">
-        <v>0.5158863682713416</v>
+        <v>0.5077394143607424</v>
       </c>
       <c r="V32" s="9">
         <v>0.2507485513157298</v>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="8">
-        <v>0.7781983037244166</v>
+        <v>0.8099487324148484</v>
       </c>
       <c r="D37" s="9">
         <v>0.6344358804293649</v>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="9">
-        <v>0.5145767980214991</v>
+        <v>0.5254331729390094</v>
       </c>
       <c r="D38" s="8">
         <v>0.5621198974602198</v>
@@ -2448,16 +2448,16 @@
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="9">
-        <v>0.6151666492355932</v>
+        <v>0.6075845621097523</v>
       </c>
       <c r="D39" s="9">
-        <v>0.5755473574989883</v>
+        <v>0.5763878960198178</v>
       </c>
       <c r="E39" s="8">
-        <v>0.6339658689165582</v>
+        <v>0.6184960552188207</v>
       </c>
       <c r="F39" s="9">
-        <v>0.5742444811336394</v>
+        <v>0.5673997841730349</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2466,16 +2466,16 @@
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="9">
-        <v>0.4373503963112979</v>
+        <v>0.4319940979627413</v>
       </c>
       <c r="D40" s="9">
-        <v>0.4398462873157136</v>
+        <v>0.4167758816573535</v>
       </c>
       <c r="E40" s="9">
-        <v>0.4128472051198038</v>
+        <v>0.3908202277430965</v>
       </c>
       <c r="F40" s="8">
-        <v>0.4822298124777052</v>
+        <v>0.4663938063623745</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2484,16 +2484,16 @@
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="9">
-        <v>0.5223646145227967</v>
+        <v>0.5216706110038343</v>
       </c>
       <c r="D42" s="9">
-        <v>0.5499431750813556</v>
+        <v>0.5425332193688454</v>
       </c>
       <c r="E42" s="9">
-        <v>0.5153287773674393</v>
+        <v>0.5079864515752036</v>
       </c>
       <c r="F42" s="8">
-        <v>0.5819698908708056</v>
+        <v>0.5796883252172709</v>
       </c>
     </row>
   </sheetData>

--- a/results/acl/mbert/results_pos_postprocessed.xlsx
+++ b/results/acl/mbert/results_pos_postprocessed.xlsx
@@ -642,25 +642,25 @@
         <v>2</v>
       </c>
       <c r="C2" s="8">
-        <v>0.8981853442305029</v>
+        <v>0.9824459770114943</v>
       </c>
       <c r="D2" s="9">
-        <v>0.8397284942512814</v>
+        <v>0.8229394636015326</v>
       </c>
       <c r="E2" s="9">
-        <v>0.7610010620122823</v>
+        <v>0.7516291187739463</v>
       </c>
       <c r="F2" s="9">
-        <v>0.8408366809807453</v>
+        <v>0.8470927203065134</v>
       </c>
       <c r="G2" s="9">
-        <v>0.8144710717089163</v>
+        <v>0.7861885057471264</v>
       </c>
       <c r="H2" s="9">
-        <v>0.6014683474165397</v>
+        <v>0.5591141762452108</v>
       </c>
       <c r="I2" s="9">
-        <v>0.5479983377199058</v>
+        <v>0.574663601532567</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>23</v>
@@ -669,34 +669,34 @@
         <v>23</v>
       </c>
       <c r="L2" s="9">
-        <v>0.7337119637992335</v>
+        <v>0.7238620689655172</v>
       </c>
       <c r="M2" s="9">
-        <v>0.6829200720321374</v>
+        <v>0.667656704980843</v>
       </c>
       <c r="N2" s="9">
-        <v>0.6089947822874822</v>
+        <v>0.6131157088122605</v>
       </c>
       <c r="O2" s="9">
-        <v>0.5997137184282219</v>
+        <v>0.5895019157088123</v>
       </c>
       <c r="P2" s="9">
-        <v>0.5631435563559126</v>
+        <v>0.5680674329501916</v>
       </c>
       <c r="Q2" s="9">
-        <v>0.6265872466177218</v>
+        <v>0.6250727969348659</v>
       </c>
       <c r="R2" s="9">
-        <v>0.6205845684997923</v>
+        <v>0.6401900383141762</v>
       </c>
       <c r="S2" s="9">
-        <v>0.7214757353280694</v>
+        <v>0.7131310344827586</v>
       </c>
       <c r="T2" s="9">
-        <v>0.6420095119360946</v>
+        <v>0.6425164750957855</v>
       </c>
       <c r="U2" s="9">
-        <v>0.4972987948469317</v>
+        <v>0.5379708812260536</v>
       </c>
       <c r="V2" s="9">
         <v>0.1961952255621739</v>
@@ -710,25 +710,25 @@
         <v>3</v>
       </c>
       <c r="C3" s="9">
-        <v>0.8317615358706635</v>
+        <v>0.844756728092271</v>
       </c>
       <c r="D3" s="8">
-        <v>0.8981138430447962</v>
+        <v>0.9882388591125169</v>
       </c>
       <c r="E3" s="9">
-        <v>0.7250757830919502</v>
+        <v>0.777674665252552</v>
       </c>
       <c r="F3" s="9">
-        <v>0.8488127315594476</v>
+        <v>0.8765174901990492</v>
       </c>
       <c r="G3" s="9">
-        <v>0.767009093971034</v>
+        <v>0.7590954716766728</v>
       </c>
       <c r="H3" s="9">
-        <v>0.5632788817783766</v>
+        <v>0.5635499327664248</v>
       </c>
       <c r="I3" s="9">
-        <v>0.5955708992926911</v>
+        <v>0.5846858961004526</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>23</v>
@@ -737,34 +737,34 @@
         <v>23</v>
       </c>
       <c r="L3" s="9">
-        <v>0.7381694173122263</v>
+        <v>0.8137535273953145</v>
       </c>
       <c r="M3" s="9">
-        <v>0.60500168406871</v>
+        <v>0.6331319482585557</v>
       </c>
       <c r="N3" s="9">
-        <v>0.5506483664533512</v>
+        <v>0.5701785951023655</v>
       </c>
       <c r="O3" s="9">
-        <v>0.5133462445267767</v>
+        <v>0.5201984810893733</v>
       </c>
       <c r="P3" s="9">
-        <v>0.5322078140788145</v>
+        <v>0.5320732561883298</v>
       </c>
       <c r="Q3" s="9">
-        <v>0.5505641630178512</v>
+        <v>0.5775458798128823</v>
       </c>
       <c r="R3" s="9">
-        <v>0.6405776355675311</v>
+        <v>0.6349311566068825</v>
       </c>
       <c r="S3" s="9">
-        <v>0.7221286628494442</v>
+        <v>0.7232628169921024</v>
       </c>
       <c r="T3" s="9">
-        <v>0.6647019198383294</v>
+        <v>0.6829794890248291</v>
       </c>
       <c r="U3" s="9">
-        <v>0.5051364095655103</v>
+        <v>0.5205772617942842</v>
       </c>
       <c r="V3" s="9">
         <v>0.203014482990906</v>
@@ -805,7 +805,7 @@
         <v>23</v>
       </c>
       <c r="L4" s="9">
-        <v>0.7704175621737795</v>
+        <v>0.7793214614676083</v>
       </c>
       <c r="M4" s="9">
         <v>0.77655818237642</v>
@@ -873,7 +873,7 @@
         <v>23</v>
       </c>
       <c r="L5" s="9">
-        <v>0.8279049589534806</v>
+        <v>0.8012414069278516</v>
       </c>
       <c r="M5" s="9">
         <v>0.7456116932523527</v>
@@ -941,7 +941,7 @@
         <v>23</v>
       </c>
       <c r="L6" s="9">
-        <v>0.67762793275448</v>
+        <v>0.6810456308886015</v>
       </c>
       <c r="M6" s="9">
         <v>0.6591538887862554</v>
@@ -982,25 +982,25 @@
         <v>7</v>
       </c>
       <c r="C7" s="9">
-        <v>0.4849404622927854</v>
+        <v>0.5141525141525142</v>
       </c>
       <c r="D7" s="9">
-        <v>0.562456222274107</v>
+        <v>0.5670163170163171</v>
       </c>
       <c r="E7" s="9">
-        <v>0.3678262899836563</v>
+        <v>0.4023476523476524</v>
       </c>
       <c r="F7" s="9">
-        <v>0.6010273173009573</v>
+        <v>0.6224608724608724</v>
       </c>
       <c r="G7" s="9">
-        <v>0.5201494279710484</v>
+        <v>0.5213120213120214</v>
       </c>
       <c r="H7" s="8">
-        <v>0.9188419332243755</v>
+        <v>0.9492174492174492</v>
       </c>
       <c r="I7" s="9">
-        <v>0.5106700910576698</v>
+        <v>0.5404595404595405</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>23</v>
@@ -1009,34 +1009,34 @@
         <v>23</v>
       </c>
       <c r="L7" s="9">
-        <v>0.5731496614522531</v>
+        <v>0.5937395937395937</v>
       </c>
       <c r="M7" s="9">
-        <v>0.5490077048797571</v>
+        <v>0.5826673326673326</v>
       </c>
       <c r="N7" s="9">
-        <v>0.5209432640672426</v>
+        <v>0.5621878121878122</v>
       </c>
       <c r="O7" s="9">
-        <v>0.4995563857109503</v>
+        <v>0.5382950382950383</v>
       </c>
       <c r="P7" s="9">
-        <v>0.559981321503619</v>
+        <v>0.5938228438228438</v>
       </c>
       <c r="Q7" s="9">
-        <v>0.4982488909642774</v>
+        <v>0.5105727605727606</v>
       </c>
       <c r="R7" s="9">
-        <v>0.4335279010039692</v>
+        <v>0.4392274392274392</v>
       </c>
       <c r="S7" s="9">
-        <v>0.5040859210833528</v>
+        <v>0.5322177822177823</v>
       </c>
       <c r="T7" s="9">
-        <v>0.4711650712117674</v>
+        <v>0.491008991008991</v>
       </c>
       <c r="U7" s="9">
-        <v>0.4247490077048798</v>
+        <v>0.4234099234099234</v>
       </c>
       <c r="V7" s="9">
         <v>0.2526266635535839</v>
@@ -1077,7 +1077,7 @@
         <v>23</v>
       </c>
       <c r="L8" s="9">
-        <v>0.6282726892513593</v>
+        <v>0.6271016311166876</v>
       </c>
       <c r="M8" s="9">
         <v>0.550564617314931</v>
@@ -1145,7 +1145,7 @@
         <v>23</v>
       </c>
       <c r="L9" s="9">
-        <v>0.557476928590628</v>
+        <v>0.3885852522175433</v>
       </c>
       <c r="M9" s="9">
         <v>0.4663112624316818</v>
@@ -1213,7 +1213,7 @@
         <v>23</v>
       </c>
       <c r="L10" s="9">
-        <v>0.5056761028883461</v>
+        <v>0.4925276620204052</v>
       </c>
       <c r="M10" s="9">
         <v>0.4655841356516741</v>
@@ -1254,25 +1254,25 @@
         <v>11</v>
       </c>
       <c r="C11" s="9">
-        <v>0.7453400503778338</v>
+        <v>0.7381154499151104</v>
       </c>
       <c r="D11" s="9">
-        <v>0.8025188916876574</v>
+        <v>0.8202886247877759</v>
       </c>
       <c r="E11" s="9">
-        <v>0.7477581863979849</v>
+        <v>0.750169779286927</v>
       </c>
       <c r="F11" s="9">
-        <v>0.8038790931989924</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="G11" s="9">
-        <v>0.7140050377833753</v>
+        <v>0.6646010186757215</v>
       </c>
       <c r="H11" s="9">
-        <v>0.6330982367758187</v>
+        <v>0.6289473684210526</v>
       </c>
       <c r="I11" s="9">
-        <v>0.5950629722921914</v>
+        <v>0.580730050933786</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>23</v>
@@ -1281,34 +1281,34 @@
         <v>23</v>
       </c>
       <c r="L11" s="8">
-        <v>0.9049874055415618</v>
+        <v>0.9275891341256367</v>
       </c>
       <c r="M11" s="9">
-        <v>0.7392443324937028</v>
+        <v>0.7298811544991511</v>
       </c>
       <c r="N11" s="9">
-        <v>0.6463476070528967</v>
+        <v>0.6679966044142615</v>
       </c>
       <c r="O11" s="9">
-        <v>0.5987405541561713</v>
+        <v>0.5992359932088285</v>
       </c>
       <c r="P11" s="9">
-        <v>0.5791435768261964</v>
+        <v>0.5795415959252971</v>
       </c>
       <c r="Q11" s="9">
-        <v>0.6411586901763224</v>
+        <v>0.6387945670628183</v>
       </c>
       <c r="R11" s="9">
-        <v>0.6859949622166247</v>
+        <v>0.6155348047538201</v>
       </c>
       <c r="S11" s="9">
-        <v>0.7662468513853904</v>
+        <v>0.7343803056027165</v>
       </c>
       <c r="T11" s="9">
-        <v>0.6704785894206549</v>
+        <v>0.666723259762309</v>
       </c>
       <c r="U11" s="9">
-        <v>0.5644836272040302</v>
+        <v>0.5791171477079796</v>
       </c>
       <c r="V11" s="9">
         <v>0.2358186397984887</v>
@@ -1322,25 +1322,25 @@
         <v>12</v>
       </c>
       <c r="C12" s="9">
-        <v>0.7825317575680971</v>
+        <v>0.7401306447032093</v>
       </c>
       <c r="D12" s="9">
-        <v>0.8485748593819125</v>
+        <v>0.8178074410678784</v>
       </c>
       <c r="E12" s="9">
-        <v>0.7685647475194337</v>
+        <v>0.739136608917921</v>
       </c>
       <c r="F12" s="9">
-        <v>0.8394741831511091</v>
+        <v>0.7874183470604942</v>
       </c>
       <c r="G12" s="9">
-        <v>0.7858813120141566</v>
+        <v>0.7884597178831771</v>
       </c>
       <c r="H12" s="9">
-        <v>0.6468432029324401</v>
+        <v>0.6336741456025751</v>
       </c>
       <c r="I12" s="9">
-        <v>0.571193831763888</v>
+        <v>0.5858657578339487</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>23</v>
@@ -1349,34 +1349,34 @@
         <v>23</v>
       </c>
       <c r="L12" s="9">
-        <v>0.7932756114516842</v>
+        <v>0.7567452428287418</v>
       </c>
       <c r="M12" s="8">
-        <v>0.9734563609934905</v>
+        <v>0.9651614124775159</v>
       </c>
       <c r="N12" s="9">
-        <v>0.7702079251722177</v>
+        <v>0.7496923222569346</v>
       </c>
       <c r="O12" s="9">
-        <v>0.6453896227011313</v>
+        <v>0.6361355675470983</v>
       </c>
       <c r="P12" s="9">
-        <v>0.680022751690577</v>
+        <v>0.6616964877402253</v>
       </c>
       <c r="Q12" s="9">
-        <v>0.7652151930733742</v>
+        <v>0.7340244248792956</v>
       </c>
       <c r="R12" s="9">
-        <v>0.6453896227011313</v>
+        <v>0.636324907696677</v>
       </c>
       <c r="S12" s="9">
-        <v>0.7918852303608671</v>
+        <v>0.7894537536684654</v>
       </c>
       <c r="T12" s="9">
-        <v>0.6664349364848638</v>
+        <v>0.6491527028306352</v>
       </c>
       <c r="U12" s="9">
-        <v>0.6364153447513113</v>
+        <v>0.6231657673009562</v>
       </c>
       <c r="V12" s="9">
         <v>0.266889970296404</v>
@@ -1417,7 +1417,7 @@
         <v>23</v>
       </c>
       <c r="L13" s="9">
-        <v>0.6942643800771313</v>
+        <v>0.6954951998030688</v>
       </c>
       <c r="M13" s="9">
         <v>0.7055468942315583</v>
@@ -1485,7 +1485,7 @@
         <v>23</v>
       </c>
       <c r="L14" s="9">
-        <v>0.5435380384967919</v>
+        <v>0.568638510893323</v>
       </c>
       <c r="M14" s="9">
         <v>0.5782979623492914</v>
@@ -1526,25 +1526,25 @@
         <v>15</v>
       </c>
       <c r="C15" s="9">
-        <v>0.4023289774216497</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="D15" s="9">
-        <v>0.5032762946044108</v>
+        <v>0.4875709682369188</v>
       </c>
       <c r="E15" s="9">
-        <v>0.3463885872617666</v>
+        <v>0.3107257940770293</v>
       </c>
       <c r="F15" s="9">
-        <v>0.4327704347174898</v>
+        <v>0.3551480742673009</v>
       </c>
       <c r="G15" s="9">
-        <v>0.3803497210469166</v>
+        <v>0.3672702163572196</v>
       </c>
       <c r="H15" s="9">
-        <v>0.5187029617703224</v>
+        <v>0.4797452815712751</v>
       </c>
       <c r="I15" s="9">
-        <v>0.4326581046167671</v>
+        <v>0.4478287555623753</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>23</v>
@@ -1553,34 +1553,34 @@
         <v>23</v>
       </c>
       <c r="L15" s="9">
-        <v>0.4411577489047815</v>
+        <v>0.4375479515114317</v>
       </c>
       <c r="M15" s="9">
-        <v>0.4828696596397948</v>
+        <v>0.4686205309191346</v>
       </c>
       <c r="N15" s="9">
-        <v>0.5024899838993522</v>
+        <v>0.5049102347705999</v>
       </c>
       <c r="O15" s="9">
-        <v>0.4829445463736099</v>
+        <v>0.4796685591529845</v>
       </c>
       <c r="P15" s="8">
-        <v>0.9275470850338863</v>
+        <v>0.9703851465398189</v>
       </c>
       <c r="Q15" s="9">
-        <v>0.5418804058860973</v>
+        <v>0.518796992481203</v>
       </c>
       <c r="R15" s="9">
-        <v>0.3736099150035571</v>
+        <v>0.3775510204081632</v>
       </c>
       <c r="S15" s="9">
-        <v>0.4884112779421125</v>
+        <v>0.4825840110480282</v>
       </c>
       <c r="T15" s="9">
-        <v>0.4594675553225746</v>
+        <v>0.4502838729476753</v>
       </c>
       <c r="U15" s="9">
-        <v>0.3671322125285505</v>
+        <v>0.3609022556390977</v>
       </c>
       <c r="V15" s="9">
         <v>0.2425955741940315</v>
@@ -1621,7 +1621,7 @@
         <v>23</v>
       </c>
       <c r="L16" s="9">
-        <v>0.6715428125609518</v>
+        <v>0.6762239126194656</v>
       </c>
       <c r="M16" s="9">
         <v>0.6914374878096352</v>
@@ -1689,7 +1689,7 @@
         <v>23</v>
       </c>
       <c r="L17" s="9">
-        <v>0.6717373348017621</v>
+        <v>0.6526362885462555</v>
       </c>
       <c r="M17" s="9">
         <v>0.5567524779735683</v>
@@ -1757,7 +1757,7 @@
         <v>23</v>
       </c>
       <c r="L18" s="9">
-        <v>0.616898989231684</v>
+        <v>0.5704564973244368</v>
       </c>
       <c r="M18" s="9">
         <v>0.4909823611019357</v>
@@ -1825,7 +1825,7 @@
         <v>23</v>
       </c>
       <c r="L19" s="9">
-        <v>0.3668319062640829</v>
+        <v>0.3325822442541685</v>
       </c>
       <c r="M19" s="9">
         <v>0.3091482649842272</v>
@@ -1893,7 +1893,7 @@
         <v>23</v>
       </c>
       <c r="L20" s="9">
-        <v>0.3283662963966405</v>
+        <v>0.3127427074866793</v>
       </c>
       <c r="M20" s="9">
         <v>0.3204190372979319</v>
@@ -1932,25 +1932,25 @@
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="9">
-        <v>0.5758477728349909</v>
+        <v>0.5722987292231136</v>
       </c>
       <c r="D22" s="8">
-        <v>0.632858063060262</v>
+        <v>0.6305840659775428</v>
       </c>
       <c r="E22" s="9">
-        <v>0.5644293865401874</v>
+        <v>0.5652665511173515</v>
       </c>
       <c r="F22" s="9">
-        <v>0.5881539320583904</v>
+        <v>0.585066026977656</v>
       </c>
       <c r="G22" s="9">
-        <v>0.5922830668267715</v>
+        <v>0.5870086938910211</v>
       </c>
       <c r="H22" s="9">
-        <v>0.5283393504809212</v>
+        <v>0.5228748656994235</v>
       </c>
       <c r="I22" s="9">
-        <v>0.5143876306739299</v>
+        <v>0.5177809287672387</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>23</v>
@@ -1959,34 +1959,34 @@
         <v>23</v>
       </c>
       <c r="L22" s="9">
-        <v>0.6188900186311833</v>
+        <v>0.6057914883337052</v>
       </c>
       <c r="M22" s="9">
-        <v>0.5764117621486423</v>
+        <v>0.577684774271471</v>
       </c>
       <c r="N22" s="9">
-        <v>0.5473482185010652</v>
+        <v>0.5511509600906036</v>
       </c>
       <c r="O22" s="9">
-        <v>0.5049256073307429</v>
+        <v>0.5062225230588137</v>
       </c>
       <c r="P22" s="9">
-        <v>0.5228564495970084</v>
+        <v>0.5240065938287732</v>
       </c>
       <c r="Q22" s="9">
-        <v>0.543724842078163</v>
+        <v>0.5426777771897285</v>
       </c>
       <c r="R22" s="9">
-        <v>0.5263636166979903</v>
+        <v>0.5232566590321321</v>
       </c>
       <c r="S22" s="9">
-        <v>0.6266189199139993</v>
+        <v>0.6255520324174779</v>
       </c>
       <c r="T22" s="9">
-        <v>0.5782573269068908</v>
+        <v>0.5787243939322209</v>
       </c>
       <c r="U22" s="9">
-        <v>0.5119837581136053</v>
+        <v>0.5147575270289987</v>
       </c>
       <c r="V22" s="9">
         <v>0.2525957144421507</v>
@@ -2063,26 +2063,26 @@
         <v>22</v>
       </c>
       <c r="B27" s="13"/>
-      <c r="C27" s="9">
-        <v>0.8348403942024935</v>
-      </c>
-      <c r="D27" s="8">
-        <v>0.838453707398594</v>
+      <c r="C27" s="8">
+        <v>0.8380891922578954</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0.8342564497361569</v>
       </c>
       <c r="E27" s="9">
-        <v>0.7498477881462123</v>
+        <v>0.7606545228767788</v>
       </c>
       <c r="F27" s="9">
-        <v>0.8265053457832636</v>
+        <v>0.8349955452746061</v>
       </c>
       <c r="G27" s="9">
-        <v>0.8000964265436784</v>
+        <v>0.7910473794796405</v>
       </c>
       <c r="H27" s="9">
-        <v>0.5906736424707152</v>
+        <v>0.5822570184340591</v>
       </c>
       <c r="I27" s="9">
-        <v>0.5630676318187394</v>
+        <v>0.5662236839428239</v>
       </c>
       <c r="J27" s="9" t="s">
         <v>23</v>
@@ -2091,34 +2091,34 @@
         <v>23</v>
       </c>
       <c r="L27" s="9">
-        <v>0.7495663669986401</v>
+        <v>0.7598448191289786</v>
       </c>
       <c r="M27" s="9">
-        <v>0.6938491041031751</v>
+        <v>0.6964224835308853</v>
       </c>
       <c r="N27" s="9">
-        <v>0.6149450178135727</v>
+        <v>0.6196752488483311</v>
       </c>
       <c r="O27" s="9">
-        <v>0.56144046887431</v>
+        <v>0.5607685556429474</v>
       </c>
       <c r="P27" s="9">
-        <v>0.5636056591630394</v>
+        <v>0.5645635229037982</v>
       </c>
       <c r="Q27" s="9">
-        <v>0.6196340037852833</v>
+        <v>0.6247274572077183</v>
       </c>
       <c r="R27" s="9">
-        <v>0.6604938344922486</v>
+        <v>0.6632856326629957</v>
       </c>
       <c r="S27" s="9">
-        <v>0.7277375641359637</v>
+        <v>0.7262954547954331</v>
       </c>
       <c r="T27" s="9">
-        <v>0.6569130449064986</v>
+        <v>0.6606699513757367</v>
       </c>
       <c r="U27" s="9">
-        <v>0.5723422354096285</v>
+        <v>0.5835648231312077</v>
       </c>
       <c r="V27" s="9">
         <v>0.208925063943646</v>
@@ -2130,25 +2130,25 @@
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="9">
-        <v>0.4941799679128475</v>
+        <v>0.4985774581922485</v>
       </c>
       <c r="D28" s="9">
-        <v>0.5655674463701668</v>
+        <v>0.5700334119386324</v>
       </c>
       <c r="E28" s="9">
-        <v>0.4985183811422861</v>
+        <v>0.5059049721928737</v>
       </c>
       <c r="F28" s="9">
-        <v>0.5366117236591879</v>
+        <v>0.5446387450836305</v>
       </c>
       <c r="G28" s="9">
-        <v>0.5322883456105589</v>
+        <v>0.5226400604572229</v>
       </c>
       <c r="H28" s="8">
-        <v>0.5910494518278471</v>
+        <v>0.5900117347391555</v>
       </c>
       <c r="I28" s="9">
-        <v>0.5291663950071657</v>
+        <v>0.533030527018032</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>23</v>
@@ -2157,34 +2157,34 @@
         <v>23</v>
       </c>
       <c r="L28" s="9">
-        <v>0.5661438455456467</v>
+        <v>0.5254885347735574</v>
       </c>
       <c r="M28" s="9">
-        <v>0.5541424105543493</v>
+        <v>0.5590017005129541</v>
       </c>
       <c r="N28" s="9">
-        <v>0.5296261027645168</v>
+        <v>0.5422048118609036</v>
       </c>
       <c r="O28" s="9">
-        <v>0.4957263131285574</v>
+        <v>0.5035731314559063</v>
       </c>
       <c r="P28" s="9">
-        <v>0.5146786068595262</v>
+        <v>0.5215265151431913</v>
       </c>
       <c r="Q28" s="9">
-        <v>0.5180479478662404</v>
+        <v>0.5200398971652362</v>
       </c>
       <c r="R28" s="9">
-        <v>0.488743570375764</v>
+        <v>0.4757914465278972</v>
       </c>
       <c r="S28" s="9">
-        <v>0.5889487384834851</v>
+        <v>0.5882018015538362</v>
       </c>
       <c r="T28" s="9">
-        <v>0.5324401610488805</v>
+        <v>0.5356578790766559</v>
       </c>
       <c r="U28" s="9">
-        <v>0.4590416170626418</v>
+        <v>0.4617005043044403</v>
       </c>
       <c r="V28" s="9">
         <v>0.2553364416183978</v>
@@ -2196,25 +2196,25 @@
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="9">
-        <v>0.5993844295826897</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0.6482120327705737</v>
+        <v>0.5796113438562092</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0.6389174838342686</v>
       </c>
       <c r="E29" s="9">
-        <v>0.5782686598708006</v>
+        <v>0.5652504735135506</v>
       </c>
       <c r="F29" s="9">
-        <v>0.6162166904298669</v>
+        <v>0.5902810511217063</v>
       </c>
       <c r="G29" s="9">
-        <v>0.5958409978948308</v>
+        <v>0.5937407781306955</v>
       </c>
       <c r="H29" s="9">
-        <v>0.5665753440564864</v>
+        <v>0.556149996550704</v>
       </c>
       <c r="I29" s="9">
-        <v>0.5338326257046987</v>
+        <v>0.5398011411078324</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>23</v>
@@ -2223,34 +2223,34 @@
         <v>23</v>
       </c>
       <c r="L29" s="9">
-        <v>0.6287557182982682</v>
+        <v>0.6269301635312061</v>
       </c>
       <c r="M29" s="9">
-        <v>0.6145380010075698</v>
+        <v>0.6109757188274048</v>
       </c>
       <c r="N29" s="9">
-        <v>0.635540868635675</v>
+        <v>0.6310170306246662</v>
       </c>
       <c r="O29" s="9">
-        <v>0.5832084255544703</v>
+        <v>0.5800759149608058</v>
       </c>
       <c r="P29" s="9">
-        <v>0.623852733516761</v>
+        <v>0.619271167529173</v>
       </c>
       <c r="Q29" s="9">
-        <v>0.6353402473796275</v>
+        <v>0.6217717019798843</v>
       </c>
       <c r="R29" s="9">
-        <v>0.5217817393025161</v>
-      </c>
-      <c r="S29" s="9">
-        <v>0.6422444759059244</v>
+        <v>0.5207570173825464</v>
+      </c>
+      <c r="S29" s="8">
+        <v>0.6405927271886271</v>
       </c>
       <c r="T29" s="9">
-        <v>0.5755394370979757</v>
+        <v>0.5702462538921501</v>
       </c>
       <c r="U29" s="9">
-        <v>0.5300334843857233</v>
+        <v>0.5261375775177617</v>
       </c>
       <c r="V29" s="9">
         <v>0.3230802477871418</v>
@@ -2289,7 +2289,7 @@
         <v>23</v>
       </c>
       <c r="L30" s="9">
-        <v>0.4959586316735424</v>
+        <v>0.467104434402885</v>
       </c>
       <c r="M30" s="9">
         <v>0.4193255353394157</v>
@@ -2328,25 +2328,25 @@
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="9">
-        <v>0.5794809695958938</v>
+        <v>0.5764492702479743</v>
       </c>
       <c r="D32" s="8">
-        <v>0.6361041034964985</v>
+        <v>0.6338476432389293</v>
       </c>
       <c r="E32" s="9">
-        <v>0.5676838697943927</v>
+        <v>0.5689776546503686</v>
       </c>
       <c r="F32" s="9">
-        <v>0.5896213976851233</v>
+        <v>0.5872667930870294</v>
       </c>
       <c r="G32" s="9">
-        <v>0.595810366211031</v>
+        <v>0.5906109782156538</v>
       </c>
       <c r="H32" s="9">
-        <v>0.5220537076330862</v>
+        <v>0.5170837854753038</v>
       </c>
       <c r="I32" s="9">
-        <v>0.5101298184129563</v>
+        <v>0.5133769932974774</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>23</v>
@@ -2355,34 +2355,34 @@
         <v>23</v>
       </c>
       <c r="L32" s="9">
-        <v>0.6101061406290244</v>
+        <v>0.5948419879591568</v>
       </c>
       <c r="M32" s="9">
-        <v>0.5704637627511275</v>
+        <v>0.571431359552665</v>
       </c>
       <c r="N32" s="9">
-        <v>0.5442310507775676</v>
+        <v>0.5474273263076017</v>
       </c>
       <c r="O32" s="9">
-        <v>0.5019683843719066</v>
+        <v>0.502978982997487</v>
       </c>
       <c r="P32" s="9">
-        <v>0.5208207391702242</v>
+        <v>0.5216267906794332</v>
       </c>
       <c r="Q32" s="9">
-        <v>0.5405853253597132</v>
+        <v>0.538964539690135</v>
       </c>
       <c r="R32" s="9">
-        <v>0.5110422343518973</v>
+        <v>0.5082459724526249</v>
       </c>
       <c r="S32" s="9">
-        <v>0.6134399167834369</v>
+        <v>0.6124797180365676</v>
       </c>
       <c r="T32" s="9">
-        <v>0.5732372165181104</v>
+        <v>0.5736575768409075</v>
       </c>
       <c r="U32" s="9">
-        <v>0.5077394143607424</v>
+        <v>0.5102358063845964</v>
       </c>
       <c r="V32" s="9">
         <v>0.2507485513157298</v>
@@ -2412,16 +2412,16 @@
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="8">
-        <v>0.8099487324148484</v>
+        <v>0.8118086179250156</v>
       </c>
       <c r="D37" s="9">
-        <v>0.6344358804293649</v>
+        <v>0.6361085071686206</v>
       </c>
       <c r="E37" s="9">
-        <v>0.6106948507478761</v>
+        <v>0.6132314536267361</v>
       </c>
       <c r="F37" s="9">
-        <v>0.6543716697360848</v>
+        <v>0.6584539654913433</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2430,16 +2430,16 @@
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="9">
-        <v>0.5254331729390094</v>
+        <v>0.5283589295729215</v>
       </c>
       <c r="D38" s="8">
-        <v>0.5621198974602198</v>
+        <v>0.5495102655102483</v>
       </c>
       <c r="E38" s="9">
-        <v>0.5224442762346381</v>
+        <v>0.5292692112276383</v>
       </c>
       <c r="F38" s="9">
-        <v>0.5172935217426928</v>
+        <v>0.5153379078657074</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2448,16 +2448,16 @@
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="9">
-        <v>0.6075845621097523</v>
+        <v>0.593560226091286</v>
       </c>
       <c r="D39" s="9">
-        <v>0.5763878960198178</v>
+        <v>0.5742937670632475</v>
       </c>
       <c r="E39" s="8">
-        <v>0.6184960552188207</v>
+        <v>0.6126223067843868</v>
       </c>
       <c r="F39" s="9">
-        <v>0.5673997841730349</v>
+        <v>0.5644333939952713</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2469,7 +2469,7 @@
         <v>0.4319940979627413</v>
       </c>
       <c r="D40" s="9">
-        <v>0.4167758816573535</v>
+        <v>0.4071578159004677</v>
       </c>
       <c r="E40" s="9">
         <v>0.3908202277430965</v>
@@ -2484,16 +2484,16 @@
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="9">
-        <v>0.5216706110038343</v>
+        <v>0.5179710845423162</v>
       </c>
       <c r="D42" s="9">
-        <v>0.5425332193688454</v>
+        <v>0.5391866967107786</v>
       </c>
       <c r="E42" s="9">
-        <v>0.5079864515752036</v>
+        <v>0.5111069641991569</v>
       </c>
       <c r="F42" s="8">
-        <v>0.5796883252172709</v>
+        <v>0.579408422450774</v>
       </c>
     </row>
   </sheetData>

--- a/results/acl/mbert/results_pos_postprocessed.xlsx
+++ b/results/acl/mbert/results_pos_postprocessed.xlsx
@@ -699,7 +699,7 @@
         <v>0.5379708812260536</v>
       </c>
       <c r="V2" s="9">
-        <v>0.1961952255621739</v>
+        <v>0.2118068965517241</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -767,7 +767,7 @@
         <v>0.5205772617942842</v>
       </c>
       <c r="V3" s="9">
-        <v>0.203014482990906</v>
+        <v>0.1805458229957766</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -1039,7 +1039,7 @@
         <v>0.4234099234099234</v>
       </c>
       <c r="V7" s="9">
-        <v>0.2526266635535839</v>
+        <v>0.2757242757242757</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1311,7 +1311,7 @@
         <v>0.5791171477079796</v>
       </c>
       <c r="V11" s="9">
-        <v>0.2358186397984887</v>
+        <v>0.216893039049236</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1379,7 +1379,7 @@
         <v>0.6231657673009562</v>
       </c>
       <c r="V12" s="9">
-        <v>0.266889970296404</v>
+        <v>0.2738805263656158</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1515,7 +1515,7 @@
         <v>0.4782486074878375</v>
       </c>
       <c r="V14" s="9">
-        <v>0.4873371924746744</v>
+        <v>0.2939434534301629</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1583,7 +1583,7 @@
         <v>0.3609022556390977</v>
       </c>
       <c r="V15" s="9">
-        <v>0.2425955741940315</v>
+        <v>0.2832591683289857</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1651,7 +1651,7 @@
         <v>0.5786034718158767</v>
       </c>
       <c r="V16" s="9">
-        <v>0.3700759993038232</v>
+        <v>0.2672127950068266</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1719,7 +1719,7 @@
         <v>0.5195140418502202</v>
       </c>
       <c r="V17" s="9">
-        <v>0.2688063225868633</v>
+        <v>0.2971181376820615</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1989,7 +1989,7 @@
         <v>0.5147575270289987</v>
       </c>
       <c r="V22" s="9">
-        <v>0.2525957144421507</v>
+        <v>0.2408601378302409</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2121,7 +2121,7 @@
         <v>0.5835648231312077</v>
       </c>
       <c r="V27" s="9">
-        <v>0.208925063943646</v>
+        <v>0.2075536661425302</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2187,7 +2187,7 @@
         <v>0.4617005043044403</v>
       </c>
       <c r="V28" s="9">
-        <v>0.2553364416183978</v>
+        <v>0.2561708439026856</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2253,7 +2253,7 @@
         <v>0.5261375775177617</v>
       </c>
       <c r="V29" s="9">
-        <v>0.3230802477871418</v>
+        <v>0.2733596891596734</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2319,7 +2319,7 @@
         <v>0.4695403205849761</v>
       </c>
       <c r="V30" s="9">
-        <v>0.2156524519137334</v>
+        <v>0.2227304056875329</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2385,7 +2385,7 @@
         <v>0.5102358063845964</v>
       </c>
       <c r="V32" s="9">
-        <v>0.2507485513157298</v>
+        <v>0.2399536512231055</v>
       </c>
     </row>
     <row r="36" spans="1:6">
